--- a/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
+++ b/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\原稿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\原稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -114,40 +114,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11640072910197177"/>
+          <c:y val="4.0068872969826141E-2"/>
+          <c:w val="0.85310678472916113"/>
+          <c:h val="0.73743275511613682"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -175,13 +154,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -262,7 +241,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -292,13 +271,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -379,7 +358,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -409,13 +388,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -496,7 +475,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -526,13 +505,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -613,7 +592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -649,7 +628,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
@@ -730,7 +709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -744,13 +723,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156107680"/>
-        <c:axId val="156106016"/>
+        <c:axId val="254739056"/>
+        <c:axId val="475439680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156107680"/>
+        <c:axId val="254739056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -768,6 +748,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" sz="2800"/>
+                  <a:t>対象者人数</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -790,7 +827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -805,16 +842,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156106016"/>
+        <c:crossAx val="475439680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156106016"/>
+        <c:axId val="475439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -832,6 +869,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>NPD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" sz="2800"/>
+                  <a:t>流出比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -854,7 +951,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -869,7 +966,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156107680"/>
+        <c:crossAx val="254739056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -883,12 +980,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61949956809013762"/>
+          <c:y val="0.62968622343259728"/>
+          <c:w val="0.33904612984060473"/>
+          <c:h val="6.9561896868154643E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -897,7 +1007,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -937,7 +1047,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -1511,15 +1621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1807,7 +1917,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
+++ b/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>人数比</t>
-    <rPh sb="0" eb="2">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
+    <t>7.5m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22.5m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -121,10 +127,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11640072910197177"/>
+          <c:x val="0.16157983557840394"/>
           <c:y val="4.0068872969826141E-2"/>
-          <c:w val="0.85310678472916113"/>
-          <c:h val="0.73743275511613682"/>
+          <c:w val="0.80792772391054424"/>
+          <c:h val="0.69243563027090527"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -135,11 +141,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7.5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -154,7 +160,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -206,36 +212,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.721854</c:v>
+                  <c:v>0.71363600000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88778000000000001</c:v>
+                  <c:v>0.85375000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89505999999999997</c:v>
+                  <c:v>0.86543999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89027999999999996</c:v>
+                  <c:v>0.85907999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88783000000000001</c:v>
+                  <c:v>0.85504000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88797000000000004</c:v>
+                  <c:v>0.85809000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88937999999999995</c:v>
+                  <c:v>0.85575999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88707999999999998</c:v>
+                  <c:v>0.84763999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88732</c:v>
+                  <c:v>0.84921000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,11 +258,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>15m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -271,7 +277,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -323,36 +329,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.71363600000000005</c:v>
+                  <c:v>0.81933199999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85375000000000001</c:v>
+                  <c:v>0.91918999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86543999999999999</c:v>
+                  <c:v>0.92498999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85907999999999995</c:v>
+                  <c:v>0.92195000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85504000000000002</c:v>
+                  <c:v>0.91415999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85809000000000002</c:v>
+                  <c:v>0.91398999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85575999999999997</c:v>
+                  <c:v>0.90342999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84763999999999995</c:v>
+                  <c:v>0.89324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84921000000000002</c:v>
+                  <c:v>0.88507999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,11 +375,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>22.5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -388,7 +394,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -440,36 +446,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.81933199999999995</c:v>
+                  <c:v>0.87190500000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91918999999999995</c:v>
+                  <c:v>0.94118000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92498999999999998</c:v>
+                  <c:v>0.94501000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92195000000000005</c:v>
+                  <c:v>0.94133999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91415999999999997</c:v>
+                  <c:v>0.93130999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91398999999999997</c:v>
+                  <c:v>0.92801999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90342999999999996</c:v>
+                  <c:v>0.91734000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89324999999999999</c:v>
+                  <c:v>0.90583000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88507999999999998</c:v>
+                  <c:v>0.89636000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,11 +492,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>クラウドモデル</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,7 +511,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -557,36 +563,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.87190500000000004</c:v>
+                  <c:v>0.99941211052322165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94118000000000002</c:v>
+                  <c:v>0.98550724637681164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94501000000000002</c:v>
+                  <c:v>0.97142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94133999999999995</c:v>
+                  <c:v>0.95774647887323938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93130999999999997</c:v>
+                  <c:v>0.94444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92801999999999996</c:v>
+                  <c:v>0.93150684931506844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91734000000000004</c:v>
+                  <c:v>0.91891891891891897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90583000000000002</c:v>
+                  <c:v>0.90666666666666662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89636000000000005</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,123 +601,6 @@
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-98F0-45AA-9E04-56431F4C26F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>人数比</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.99941211052322165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98550724637681164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97142857142857142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95774647887323938</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93150684931506844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91891891891891897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90666666666666662</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -723,14 +612,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254739056"/>
-        <c:axId val="475439680"/>
+        <c:axId val="160767072"/>
+        <c:axId val="423852640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254739056"/>
+        <c:axId val="160767072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -755,7 +645,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -768,10 +658,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" sz="2800"/>
+                  <a:rPr lang="ja-JP" sz="3600"/>
                   <a:t>対象者人数</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2800"/>
+                <a:endParaRPr lang="en-US" sz="3600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -789,7 +679,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -827,7 +717,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -842,12 +732,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475439680"/>
+        <c:crossAx val="423852640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475439680"/>
+        <c:axId val="423852640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -876,7 +766,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -889,11 +779,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:rPr lang="en-US" sz="3600"/>
                   <a:t>NPD</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" sz="2800"/>
+                  <a:rPr lang="ja-JP" sz="3600"/>
                   <a:t>流出比</a:t>
                 </a:r>
               </a:p>
@@ -913,7 +803,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -951,7 +841,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -966,7 +856,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254739056"/>
+        <c:crossAx val="160767072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,10 +874,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61949956809013762"/>
-          <c:y val="0.62968622343259728"/>
-          <c:w val="0.33904612984060473"/>
-          <c:h val="6.9561896868154643E-2"/>
+          <c:x val="0.73343406867529992"/>
+          <c:y val="0.44461438767756162"/>
+          <c:w val="0.22578946226762978"/>
+          <c:h val="0.26061229912868344"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1007,7 +897,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1057,6 +947,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1620,16 +1511,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1649,6 +1540,105 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16446</cdr:x>
+      <cdr:y>0.03908</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16446</cdr:x>
+      <cdr:y>0.87922</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1895475" y="209551"/>
+          <a:ext cx="0" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15041</cdr:x>
+      <cdr:y>0.88099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18264</cdr:x>
+      <cdr:y>0.97513</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1733550" y="4724401"/>
+          <a:ext cx="371475" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1917,7 +1907,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1926,17 +1916,17 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>12</v>
-      </c>
-      <c r="E1">
-        <v>18</v>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">

--- a/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
+++ b/LplcSimulator/LplcSimulator/原稿/シミュレーション結果.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\原稿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\原稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,26 +26,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>7.5m</t>
+    <t>クラウドモデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15m</t>
+    <t>ルータアクセス可能距離：7.5[m]</t>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22.5m</t>
+    <t>ルータアクセス可能距離：15[m]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラウドモデル</t>
+    <t>ルータアクセス可能距離：22.5[m]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -145,7 +151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.5m</c:v>
+                  <c:v>ルータアクセス可能距離：7.5[m]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -160,7 +166,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -247,7 +253,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -262,7 +268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15m</c:v>
+                  <c:v>ルータアクセス可能距離：15[m]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -364,7 +370,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -379,7 +385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.5m</c:v>
+                  <c:v>ルータアクセス可能距離：22.5[m]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,7 +487,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -511,7 +517,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="dash"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -598,7 +604,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-98F0-45AA-9E04-56431F4C26F0}"/>
             </c:ext>
@@ -874,9 +880,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73343406867529992"/>
+          <c:x val="0.56814481247695281"/>
           <c:y val="0.44461438767756162"/>
-          <c:w val="0.22578946226762978"/>
+          <c:w val="0.39107871846597686"/>
           <c:h val="0.26061229912868344"/>
         </c:manualLayout>
       </c:layout>
@@ -922,12 +928,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1907,7 +1908,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1917,16 +1918,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
